--- a/AutonomousCar/docs/voiture.xlsx
+++ b/AutonomousCar/docs/voiture.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\AutonomousCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3DD3D-16A5-4253-9833-E32C9EAF08D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B88F42-EF1E-414A-8E7F-6A7E7486750D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15936" windowHeight="5160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vitesses et distances de freina" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocole de communication" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,147 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>vitesse</t>
+    <t>distance entre images</t>
   </si>
   <si>
     <t>m/s</t>
   </si>
   <si>
-    <t>distance entre images (m)</t>
-  </si>
-  <si>
-    <t>Distance arrêt (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0 varie entre −11 m s−2 et −8,5 m s−2 </t>
-  </si>
-  <si>
-    <t>coefficient de frottement à ajouter entre 0,8 et 0,6</t>
-  </si>
-  <si>
-    <t>Vu les pneus des voitures, le coefficient est faible, autour de 0,5, donc distance augmentée</t>
-  </si>
-  <si>
-    <t>On peut prendre un donc coefficient de décélération, le véhicule étant léger and -11m s-2</t>
-  </si>
-  <si>
-    <t>bits</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_7</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_6</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_5</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_4</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_3</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_2</t>
-  </si>
-  <si>
-    <t>DIR_LEFT_1</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_1</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_2</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_3</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_4</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_5</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_6</t>
-  </si>
-  <si>
-    <t>DIR_RIGHT_7</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>valuies</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t># bits</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>PWM A</t>
-  </si>
-  <si>
-    <t>PWM B</t>
-  </si>
-  <si>
-    <t>option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>motor A</t>
-  </si>
-  <si>
-    <t>motor B</t>
-  </si>
-  <si>
-    <t>MOTOR_FORWARD</t>
-  </si>
-  <si>
-    <t>MOTOR_STOP</t>
-  </si>
-  <si>
-    <t>MOTOR_BACKWARD</t>
-  </si>
-  <si>
-    <t>MOTOR_IDLE</t>
-  </si>
-  <si>
-    <t>DIR_STRAIGHT</t>
+    <t>km/h</t>
   </si>
 </sst>
 </file>
@@ -216,12 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,34 +118,14 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.8050971849934365E-2"/>
-          <c:y val="3.6943744752308987E-2"/>
-          <c:w val="0.84642137518654093"/>
-          <c:h val="0.75973437818268819"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Vitesses et distances de freina'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distance arrêt (m)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -292,270 +135,118 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Vitesses et distances de freina'!$B$4:$B$18</c:f>
+              <c:f>Feuil1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.44</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.88</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.32</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.04</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.76</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4799999999999995</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.92</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.64</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.36</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.08</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.799999999999999</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Vitesses et distances de freina'!$C$4:$C$18</c:f>
+              <c:f>Feuil1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.1127272727272733E-2</c:v>
+                  <c:v>5.5555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23650909090909089</c:v>
+                  <c:v>0.11111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49614545454545461</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85003636363636359</c:v>
+                  <c:v>0.22222222222222224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2981818181818183</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8405818181818185</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4772363636363641</c:v>
+                  <c:v>0.3888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2081454545454546</c:v>
+                  <c:v>0.44444444444444448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0333090909090901</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9527272727272731</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9664000000000001</c:v>
+                  <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0743272727272739</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.276509090909089</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5729454545454562</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.963636363636361</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F933-4293-B964-ECDF9A8288EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="777135704"/>
-        <c:axId val="777135376"/>
-      </c:areaChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Vitesses et distances de freina'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>distance entre images (m)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Vitesses et distances de freina'!$B$4:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.799999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Vitesses et distances de freina'!$D$4:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2000000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.28800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.312</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F933-4293-B964-ECDF9A8288EE}"/>
+              <c16:uniqueId val="{00000001-7807-49F1-BFAD-A67AF4D9EBC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -568,6 +259,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="421168472"/>
         <c:axId val="421168864"/>
         <c:extLst/>
@@ -599,12 +291,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>vitesse</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (m/s)</a:t>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>vitesse(km/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -634,7 +322,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -672,7 +360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421168864"/>
@@ -686,24 +374,9 @@
         <c:axId val="421168864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -724,9 +397,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>disance entre images (m)</a:t>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>distance</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> entre les images (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -755,7 +433,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -787,73 +465,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421168472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="777135376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="777135704"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="777135704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="777135376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -862,47 +480,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78404305632394866"/>
-          <c:y val="0.87321525615343421"/>
-          <c:w val="0.19175851657381301"/>
-          <c:h val="0.10297552436968251"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -929,7 +506,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1487,16 +1064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>43814</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>739139</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>350520</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1519,56 +1096,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Graphique 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0871897A-1E9D-4382-AF0C-EB3414E39ABD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="4427220"/>
-          <a:ext cx="666750" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1837,315 +1364,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G30"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <f>A2/3.6</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D2">
+        <f>B2/10</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0">A3/3.6</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="1">B3/10</f>
+        <v>0.11111111111111112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B17" si="0">A4/1000*360</f>
-        <v>0.72</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C18" si="1">B4*B4/(2*$F$28)/$F$30+D4</f>
-        <v>7.1127272727272733E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666665</v>
       </c>
       <c r="D4">
-        <f>B4/30</f>
-        <v>2.4E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="C5">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.23650909090909089</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D18" si="2">B5/30</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="C6">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.49614545454545461</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>7.2000000000000008E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>2.88</v>
-      </c>
-      <c r="C7">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.85003636363636359</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>9.6000000000000002E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="C8">
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.2981818181818183</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>0.12000000000000001</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>4.32</v>
-      </c>
-      <c r="C9">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.8405818181818185</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>0.14400000000000002</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5.04</v>
-      </c>
-      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.4772363636363641</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0.16800000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5.76</v>
-      </c>
-      <c r="C11">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>3.2081454545454546</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.192</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>6.4799999999999995</v>
-      </c>
-      <c r="C12">
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.0333090909090901</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0.216</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="C13">
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>4.9527272727272731</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0.24000000000000002</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>7.92</v>
-      </c>
-      <c r="C14">
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
-        <v>5.9664000000000001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0.26400000000000001</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>8.64</v>
-      </c>
-      <c r="C15">
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>7.0743272727272739</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.28800000000000003</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>9.36</v>
-      </c>
-      <c r="C16">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>8.276509090909089</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0.312</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>10.08</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>9.5729454545454562</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <f>A18/1000*360</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>10.963636363636361</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F28">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F30">
-        <v>0.5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A18">
+  <conditionalFormatting sqref="A2:A16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2173,7 +1611,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A4:A18</xm:sqref>
+          <xm:sqref>A2:A16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2190,60 +1628,60 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D5:D5</xm:f>
+              <xm:f>Feuil1!D3:D3</xm:f>
+              <xm:sqref>E3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!D4:D4</xm:f>
+              <xm:sqref>E4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Feuil1!D5:D5</xm:f>
               <xm:sqref>E5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D6:D6</xm:f>
+              <xm:f>Feuil1!D6:D6</xm:f>
               <xm:sqref>E6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D7:D7</xm:f>
+              <xm:f>Feuil1!D7:D7</xm:f>
               <xm:sqref>E7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D8:D8</xm:f>
+              <xm:f>Feuil1!D8:D8</xm:f>
               <xm:sqref>E8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D9:D9</xm:f>
+              <xm:f>Feuil1!D9:D9</xm:f>
               <xm:sqref>E9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D10:D10</xm:f>
+              <xm:f>Feuil1!D10:D10</xm:f>
               <xm:sqref>E10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D11:D11</xm:f>
+              <xm:f>Feuil1!D11:D11</xm:f>
               <xm:sqref>E11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D12:D12</xm:f>
+              <xm:f>Feuil1!D12:D12</xm:f>
               <xm:sqref>E12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D13:D13</xm:f>
+              <xm:f>Feuil1!D13:D13</xm:f>
               <xm:sqref>E13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D14:D14</xm:f>
+              <xm:f>Feuil1!D14:D14</xm:f>
               <xm:sqref>E14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D15:D15</xm:f>
+              <xm:f>Feuil1!D15:D15</xm:f>
               <xm:sqref>E15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D16:D16</xm:f>
+              <xm:f>Feuil1!D16:D16</xm:f>
               <xm:sqref>E16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D17:D17</xm:f>
-              <xm:sqref>E17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Vitesses et distances de freina'!D18:D18</xm:f>
-              <xm:sqref>E18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2251,528 +1689,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>128</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>256</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>